--- a/data/pca/factorExposure/factorExposure_2017-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01731187062640052</v>
+        <v>0.009908970414158931</v>
       </c>
       <c r="C2">
-        <v>0.01615314152661166</v>
+        <v>-0.04075263414178772</v>
       </c>
       <c r="D2">
-        <v>0.03129357922189293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02956509352834681</v>
+      </c>
+      <c r="E2">
+        <v>-0.03800898358524876</v>
+      </c>
+      <c r="F2">
+        <v>0.005062000560324115</v>
+      </c>
+      <c r="G2">
+        <v>-0.1036819014113319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02167708976082118</v>
+        <v>0.04148544558800101</v>
       </c>
       <c r="C3">
-        <v>-0.008656724715719833</v>
+        <v>-0.1016938026831899</v>
       </c>
       <c r="D3">
-        <v>0.1043733014375651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0176388193862326</v>
+      </c>
+      <c r="E3">
+        <v>-0.1009707572096664</v>
+      </c>
+      <c r="F3">
+        <v>0.002252766148045357</v>
+      </c>
+      <c r="G3">
+        <v>-0.1638540100114168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02546614343891638</v>
+        <v>0.05602109578033981</v>
       </c>
       <c r="C4">
-        <v>0.00548839219283125</v>
+        <v>-0.06902819728902441</v>
       </c>
       <c r="D4">
-        <v>0.08212970292430896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02454793314223946</v>
+      </c>
+      <c r="E4">
+        <v>-0.03195702632160133</v>
+      </c>
+      <c r="F4">
+        <v>0.01001138732124713</v>
+      </c>
+      <c r="G4">
+        <v>-0.1001043097018035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01314756427907773</v>
+        <v>0.0367788558610487</v>
       </c>
       <c r="C6">
-        <v>0.00842501863001368</v>
+        <v>-0.05068388227520147</v>
       </c>
       <c r="D6">
-        <v>0.07703162991109494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0171182318969035</v>
+      </c>
+      <c r="E6">
+        <v>-0.03790728396115572</v>
+      </c>
+      <c r="F6">
+        <v>0.006615507974420518</v>
+      </c>
+      <c r="G6">
+        <v>-0.08533348034384582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.005741448303125956</v>
+        <v>0.0208790745560987</v>
       </c>
       <c r="C7">
-        <v>0.0108413237856058</v>
+        <v>-0.03945756951608525</v>
       </c>
       <c r="D7">
-        <v>0.03644757519191402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01402580583710157</v>
+      </c>
+      <c r="E7">
+        <v>-0.006852070371458607</v>
+      </c>
+      <c r="F7">
+        <v>-0.00473744256550262</v>
+      </c>
+      <c r="G7">
+        <v>-0.1217529030069992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001666235230338053</v>
+        <v>0.003324704288808023</v>
       </c>
       <c r="C8">
-        <v>0.0008084458502663898</v>
+        <v>-0.02463157766558758</v>
       </c>
       <c r="D8">
-        <v>-0.003131348955006904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003835397232687007</v>
+      </c>
+      <c r="E8">
+        <v>-0.0293635778335952</v>
+      </c>
+      <c r="F8">
+        <v>0.005716933553529232</v>
+      </c>
+      <c r="G8">
+        <v>-0.06743226007690387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01514565970365432</v>
+        <v>0.0341656392773205</v>
       </c>
       <c r="C9">
-        <v>0.004673746166731722</v>
+        <v>-0.05061745473802527</v>
       </c>
       <c r="D9">
-        <v>0.0609582146471598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01636687544388394</v>
+      </c>
+      <c r="E9">
+        <v>-0.0221311263012747</v>
+      </c>
+      <c r="F9">
+        <v>0.005866432822696053</v>
+      </c>
+      <c r="G9">
+        <v>-0.1004633503747255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1183236786583441</v>
+        <v>0.0990811780899761</v>
       </c>
       <c r="C10">
-        <v>-0.138060658787285</v>
+        <v>0.1837988195964836</v>
       </c>
       <c r="D10">
-        <v>-0.09997458094696189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01566307844906338</v>
+      </c>
+      <c r="E10">
+        <v>-0.02030937295258444</v>
+      </c>
+      <c r="F10">
+        <v>-0.02239068411805173</v>
+      </c>
+      <c r="G10">
+        <v>-0.05682452498762314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004733071003578883</v>
+        <v>0.03433463078402513</v>
       </c>
       <c r="C11">
-        <v>0.001082242199316729</v>
+        <v>-0.05312477681124531</v>
       </c>
       <c r="D11">
-        <v>0.05248187369588205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.00252605022966254</v>
+      </c>
+      <c r="E11">
+        <v>-0.0176438187047591</v>
+      </c>
+      <c r="F11">
+        <v>0.019862654121712</v>
+      </c>
+      <c r="G11">
+        <v>-0.09139170460937489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004404623063989542</v>
+        <v>0.03598664099815704</v>
       </c>
       <c r="C12">
-        <v>0.003823511135028494</v>
+        <v>-0.04784174364941055</v>
       </c>
       <c r="D12">
-        <v>0.04620995929158603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00659903574211403</v>
+      </c>
+      <c r="E12">
+        <v>-0.009958557176219554</v>
+      </c>
+      <c r="F12">
+        <v>0.0007189547157263403</v>
+      </c>
+      <c r="G12">
+        <v>-0.08349330504034143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02000084415371473</v>
+        <v>0.01527580204011227</v>
       </c>
       <c r="C13">
-        <v>0.00961094723004716</v>
+        <v>-0.0417732945340309</v>
       </c>
       <c r="D13">
-        <v>0.0348957055353839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02655354114733233</v>
+      </c>
+      <c r="E13">
+        <v>-0.03797241546464893</v>
+      </c>
+      <c r="F13">
+        <v>0.00399724981390054</v>
+      </c>
+      <c r="G13">
+        <v>-0.140323419047417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.004938686236853395</v>
+        <v>0.00821740810331114</v>
       </c>
       <c r="C14">
-        <v>0.004920151528735609</v>
+        <v>-0.02826651002703071</v>
       </c>
       <c r="D14">
-        <v>0.01957752222226784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01017818477833537</v>
+      </c>
+      <c r="E14">
+        <v>-0.00801948966924175</v>
+      </c>
+      <c r="F14">
+        <v>-0.007929111819756633</v>
+      </c>
+      <c r="G14">
+        <v>-0.1057156830610232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.003622868819928448</v>
+        <v>0.03288744139362511</v>
       </c>
       <c r="C16">
-        <v>-0.002777519981695187</v>
+        <v>-0.04608938552625716</v>
       </c>
       <c r="D16">
-        <v>0.04105959328229593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002015296487407175</v>
+      </c>
+      <c r="E16">
+        <v>-0.01580993484912745</v>
+      </c>
+      <c r="F16">
+        <v>0.001296805278623088</v>
+      </c>
+      <c r="G16">
+        <v>-0.0932152370870207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01258359377595829</v>
+        <v>0.02316269569245538</v>
       </c>
       <c r="C19">
-        <v>0.005541353201559528</v>
+        <v>-0.05128960486032513</v>
       </c>
       <c r="D19">
-        <v>0.0393036656301716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0192248351772915</v>
+      </c>
+      <c r="E19">
+        <v>-0.07986425923672244</v>
+      </c>
+      <c r="F19">
+        <v>0.01924387031834539</v>
+      </c>
+      <c r="G19">
+        <v>-0.1384382410276336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.006460369518643543</v>
+        <v>0.01521890968562127</v>
       </c>
       <c r="C20">
-        <v>0.008689163068297596</v>
+        <v>-0.04189083203317392</v>
       </c>
       <c r="D20">
-        <v>0.03464257964879498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01428947154401449</v>
+      </c>
+      <c r="E20">
+        <v>-0.03860595893982571</v>
+      </c>
+      <c r="F20">
+        <v>-0.01272332255600429</v>
+      </c>
+      <c r="G20">
+        <v>-0.1106692485530982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01554314842095709</v>
+        <v>0.01241249508571371</v>
       </c>
       <c r="C21">
-        <v>0.002228460927106901</v>
+        <v>-0.03805955843380607</v>
       </c>
       <c r="D21">
-        <v>0.02353389919799929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01922667785950286</v>
+      </c>
+      <c r="E21">
+        <v>-0.05022472262089619</v>
+      </c>
+      <c r="F21">
+        <v>-0.0008397496855514218</v>
+      </c>
+      <c r="G21">
+        <v>-0.1375982780832629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001476354985050075</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002147424436401501</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006307154908350849</v>
+      </c>
+      <c r="E22">
+        <v>-0.004328631760329694</v>
+      </c>
+      <c r="F22">
+        <v>0.001692513341827157</v>
+      </c>
+      <c r="G22">
+        <v>-0.005977188363103467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00148191163853332</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.000226428051990412</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006295506623337846</v>
+      </c>
+      <c r="E23">
+        <v>-0.004315770884751004</v>
+      </c>
+      <c r="F23">
+        <v>0.001698474794753236</v>
+      </c>
+      <c r="G23">
+        <v>-0.005870031081166249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0003483896627963008</v>
+        <v>0.02807606453625953</v>
       </c>
       <c r="C24">
-        <v>0.008375140642432961</v>
+        <v>-0.05064907786632889</v>
       </c>
       <c r="D24">
-        <v>0.0452242355627841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007315186889353281</v>
+      </c>
+      <c r="E24">
+        <v>-0.01280764090198452</v>
+      </c>
+      <c r="F24">
+        <v>0.01145877166471033</v>
+      </c>
+      <c r="G24">
+        <v>-0.09182767613301225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01541600610143601</v>
+        <v>0.04221156891842834</v>
       </c>
       <c r="C25">
-        <v>-0.001014027175755255</v>
+        <v>-0.05787033015171696</v>
       </c>
       <c r="D25">
-        <v>0.05778521847512864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01137506924430288</v>
+      </c>
+      <c r="E25">
+        <v>-0.005022004801966023</v>
+      </c>
+      <c r="F25">
+        <v>0.004930207491904975</v>
+      </c>
+      <c r="G25">
+        <v>-0.1002647640690848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01771006522499211</v>
+        <v>0.01387236481421856</v>
       </c>
       <c r="C26">
-        <v>0.01313787651119773</v>
+        <v>-0.01289003064548615</v>
       </c>
       <c r="D26">
-        <v>0.0006940493839361698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02422182158914171</v>
+      </c>
+      <c r="E26">
+        <v>-0.009161031333815593</v>
+      </c>
+      <c r="F26">
+        <v>-0.008565160695129827</v>
+      </c>
+      <c r="G26">
+        <v>-0.08217021982232321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1670618951256029</v>
+        <v>0.1262054373371366</v>
       </c>
       <c r="C28">
-        <v>-0.1730926470361751</v>
+        <v>0.2407331311243735</v>
       </c>
       <c r="D28">
-        <v>-0.1282938365612638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006617875887915416</v>
+      </c>
+      <c r="E28">
+        <v>-0.009561383125798071</v>
+      </c>
+      <c r="F28">
+        <v>-0.01518582331295106</v>
+      </c>
+      <c r="G28">
+        <v>-0.04910660132327028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01023939955236413</v>
+        <v>0.008781333292720024</v>
       </c>
       <c r="C29">
-        <v>-0.001412365142628577</v>
+        <v>-0.02254346963683547</v>
       </c>
       <c r="D29">
-        <v>0.01909303303888225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.00926720960850845</v>
+      </c>
+      <c r="E29">
+        <v>-0.005497196728674637</v>
+      </c>
+      <c r="F29">
+        <v>-0.01489350019921762</v>
+      </c>
+      <c r="G29">
+        <v>-0.0970497726352559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01424717935196787</v>
+        <v>0.04140981433512231</v>
       </c>
       <c r="C30">
-        <v>0.0205647850335401</v>
+        <v>-0.06909685875675588</v>
       </c>
       <c r="D30">
-        <v>0.09928192244734686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02895722469551835</v>
+      </c>
+      <c r="E30">
+        <v>-0.06074757596093749</v>
+      </c>
+      <c r="F30">
+        <v>0.04350882022822727</v>
+      </c>
+      <c r="G30">
+        <v>-0.1336813774845457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02277052962238561</v>
+        <v>0.05305168353847716</v>
       </c>
       <c r="C31">
-        <v>-0.01741249051866425</v>
+        <v>-0.03824001592126693</v>
       </c>
       <c r="D31">
-        <v>0.0324492520246463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003856002156146939</v>
+      </c>
+      <c r="E31">
+        <v>-0.0002336875108757858</v>
+      </c>
+      <c r="F31">
+        <v>-0.0402121989666703</v>
+      </c>
+      <c r="G31">
+        <v>-0.09882785744896595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002589309445961448</v>
+        <v>0.002762539902987434</v>
       </c>
       <c r="C32">
-        <v>-0.01523214494600453</v>
+        <v>-0.0231580202589956</v>
       </c>
       <c r="D32">
-        <v>0.005141095737548657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002957655858224708</v>
+      </c>
+      <c r="E32">
+        <v>-0.03415388387297672</v>
+      </c>
+      <c r="F32">
+        <v>0.04231104250851803</v>
+      </c>
+      <c r="G32">
+        <v>-0.08722692098966668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009777464224150333</v>
+        <v>0.02836047078525852</v>
       </c>
       <c r="C33">
-        <v>0.006099077111969305</v>
+        <v>-0.05053604449518361</v>
       </c>
       <c r="D33">
-        <v>0.04230763802913851</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01569524611201589</v>
+      </c>
+      <c r="E33">
+        <v>-0.04307768548389853</v>
+      </c>
+      <c r="F33">
+        <v>0.01505989936889897</v>
+      </c>
+      <c r="G33">
+        <v>-0.162267375477612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004759940851161772</v>
+        <v>0.03977017419458722</v>
       </c>
       <c r="C34">
-        <v>-0.01335677526575589</v>
+        <v>-0.05922979125241201</v>
       </c>
       <c r="D34">
-        <v>0.05593957935178971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004430407771701724</v>
+      </c>
+      <c r="E34">
+        <v>-0.007973765027047558</v>
+      </c>
+      <c r="F34">
+        <v>0.02068879266983946</v>
+      </c>
+      <c r="G34">
+        <v>-0.0953132484276567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01620698939040821</v>
+        <v>0.01634571099446587</v>
       </c>
       <c r="C36">
-        <v>-0.002166248572543697</v>
+        <v>-0.009669027834081531</v>
       </c>
       <c r="D36">
-        <v>0.005160487474283337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01255637050102048</v>
+      </c>
+      <c r="E36">
+        <v>-0.008701983709476573</v>
+      </c>
+      <c r="F36">
+        <v>-0.008047246781731026</v>
+      </c>
+      <c r="G36">
+        <v>-0.09177416728372489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01047664526346224</v>
+        <v>0.03119890408007153</v>
       </c>
       <c r="C38">
-        <v>-0.02222119405659514</v>
+        <v>-0.0303892677552825</v>
       </c>
       <c r="D38">
-        <v>0.04003420026916592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007415189116363754</v>
+      </c>
+      <c r="E38">
+        <v>-0.007613919897553232</v>
+      </c>
+      <c r="F38">
+        <v>-0.01842180818998931</v>
+      </c>
+      <c r="G38">
+        <v>-0.08666224803499936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.008505810866836648</v>
+        <v>0.03637703212798158</v>
       </c>
       <c r="C39">
-        <v>0.02289342144858478</v>
+        <v>-0.07984298634034102</v>
       </c>
       <c r="D39">
-        <v>0.09914689554870475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01182240747200361</v>
+      </c>
+      <c r="E39">
+        <v>-0.02957493688333166</v>
+      </c>
+      <c r="F39">
+        <v>0.02216981927802246</v>
+      </c>
+      <c r="G39">
+        <v>-0.09085282849040392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01614222796325531</v>
+        <v>0.01330433670194991</v>
       </c>
       <c r="C40">
-        <v>-0.002164735241193942</v>
+        <v>-0.03918192890089502</v>
       </c>
       <c r="D40">
-        <v>0.03508362676374731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01478829508766555</v>
+      </c>
+      <c r="E40">
+        <v>-0.03252332592543567</v>
+      </c>
+      <c r="F40">
+        <v>-0.007808791247081651</v>
+      </c>
+      <c r="G40">
+        <v>-0.1236469904619559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0149301775565737</v>
+        <v>0.02054917058701356</v>
       </c>
       <c r="C41">
-        <v>-0.01183589794448139</v>
+        <v>-0.002629306334012073</v>
       </c>
       <c r="D41">
-        <v>-0.009696945153180864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004500487526623883</v>
+      </c>
+      <c r="E41">
+        <v>-0.007985210616699417</v>
+      </c>
+      <c r="F41">
+        <v>-0.01543998453502021</v>
+      </c>
+      <c r="G41">
+        <v>-0.08579284090321342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.05790641470700925</v>
+        <v>0.009586871791719015</v>
       </c>
       <c r="C42">
-        <v>0.07559437608427626</v>
+        <v>-0.03316950204009208</v>
       </c>
       <c r="D42">
-        <v>0.1468764463059211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08910415701296256</v>
+      </c>
+      <c r="E42">
+        <v>-0.01957260229269316</v>
+      </c>
+      <c r="F42">
+        <v>-0.04388784046420892</v>
+      </c>
+      <c r="G42">
+        <v>0.02338351841057771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01576727002927218</v>
+        <v>0.03516650857599206</v>
       </c>
       <c r="C43">
-        <v>-0.01160110535443897</v>
+        <v>-0.01851703745944099</v>
       </c>
       <c r="D43">
-        <v>-0.009969422000264344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005888375462333708</v>
+      </c>
+      <c r="E43">
+        <v>-0.0207762952162071</v>
+      </c>
+      <c r="F43">
+        <v>-0.007601246034416248</v>
+      </c>
+      <c r="G43">
+        <v>-0.1194170476449769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001352848656254934</v>
+        <v>0.01332244768003492</v>
       </c>
       <c r="C44">
-        <v>0.002856637829293623</v>
+        <v>-0.05962135339841031</v>
       </c>
       <c r="D44">
-        <v>0.05216469910167976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007078392184822259</v>
+      </c>
+      <c r="E44">
+        <v>-0.02550683134853012</v>
+      </c>
+      <c r="F44">
+        <v>-0.004145852461495257</v>
+      </c>
+      <c r="G44">
+        <v>-0.1106546297021267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009480731980081501</v>
+        <v>0.008421149311841007</v>
       </c>
       <c r="C46">
-        <v>0.003732484300893723</v>
+        <v>-0.01407547818008198</v>
       </c>
       <c r="D46">
-        <v>-0.00607628141371931</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01260858116750119</v>
+      </c>
+      <c r="E46">
+        <v>-0.001732973585254726</v>
+      </c>
+      <c r="F46">
+        <v>-0.01552261767204117</v>
+      </c>
+      <c r="G46">
+        <v>-0.1059765500755749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01855047673428054</v>
+        <v>0.07759296544825166</v>
       </c>
       <c r="C47">
-        <v>-0.02232029331372429</v>
+        <v>-0.06901506839817481</v>
       </c>
       <c r="D47">
-        <v>0.07407399039407632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004782198549915753</v>
+      </c>
+      <c r="E47">
+        <v>0.005095794795261728</v>
+      </c>
+      <c r="F47">
+        <v>-0.05342919284598146</v>
+      </c>
+      <c r="G47">
+        <v>-0.08511484610196271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008715172777369254</v>
+        <v>0.01876867262934354</v>
       </c>
       <c r="C48">
-        <v>-0.007837460543309844</v>
+        <v>-0.01307040599204212</v>
       </c>
       <c r="D48">
-        <v>0.01701507087052298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002295514166199826</v>
+      </c>
+      <c r="E48">
+        <v>-0.005156632585451799</v>
+      </c>
+      <c r="F48">
+        <v>-0.019587324669208</v>
+      </c>
+      <c r="G48">
+        <v>-0.09697683013049607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02702472325203904</v>
+        <v>0.07554735791246205</v>
       </c>
       <c r="C50">
-        <v>-0.02916942609752913</v>
+        <v>-0.07205269780872188</v>
       </c>
       <c r="D50">
-        <v>0.07003496523367893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002213554157984729</v>
+      </c>
+      <c r="E50">
+        <v>0.002474626521138176</v>
+      </c>
+      <c r="F50">
+        <v>-0.05584471224310664</v>
+      </c>
+      <c r="G50">
+        <v>-0.09304591708225164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007062826879409677</v>
+        <v>0.01433465038593178</v>
       </c>
       <c r="C51">
-        <v>0.0008368431265116529</v>
+        <v>-0.03643443402001394</v>
       </c>
       <c r="D51">
-        <v>0.01829903880636008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01070104667423025</v>
+      </c>
+      <c r="E51">
+        <v>-0.02589095063338466</v>
+      </c>
+      <c r="F51">
+        <v>0.02430142997701214</v>
+      </c>
+      <c r="G51">
+        <v>-0.1227610284456788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02957052648653296</v>
+        <v>0.08162086064210806</v>
       </c>
       <c r="C53">
-        <v>-0.03121270676987007</v>
+        <v>-0.08531432727408965</v>
       </c>
       <c r="D53">
-        <v>0.1281761535484252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003459105846863697</v>
+      </c>
+      <c r="E53">
+        <v>0.02422047464034266</v>
+      </c>
+      <c r="F53">
+        <v>-0.06506696668219458</v>
+      </c>
+      <c r="G53">
+        <v>-0.09254658983025311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01307133895490026</v>
+        <v>0.03165051175084502</v>
       </c>
       <c r="C54">
-        <v>-0.01881685584348546</v>
+        <v>-0.01913284723736581</v>
       </c>
       <c r="D54">
-        <v>-0.002242726980107342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001257724402477552</v>
+      </c>
+      <c r="E54">
+        <v>-0.01823283556413882</v>
+      </c>
+      <c r="F54">
+        <v>-0.005845129214809505</v>
+      </c>
+      <c r="G54">
+        <v>-0.1064531506090337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01604056569816717</v>
+        <v>0.07178512477080509</v>
       </c>
       <c r="C55">
-        <v>-0.01787450859113837</v>
+        <v>-0.06818463977125395</v>
       </c>
       <c r="D55">
-        <v>0.100876106223492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005087515475221876</v>
+      </c>
+      <c r="E55">
+        <v>0.02229878089634483</v>
+      </c>
+      <c r="F55">
+        <v>-0.06490716602315633</v>
+      </c>
+      <c r="G55">
+        <v>-0.06979113514150849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0312542443012063</v>
+        <v>0.1359913341133263</v>
       </c>
       <c r="C56">
-        <v>-0.03827039598122743</v>
+        <v>-0.108168660497692</v>
       </c>
       <c r="D56">
-        <v>0.1560971950932943</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01242199848850182</v>
+      </c>
+      <c r="E56">
+        <v>0.03201836752683776</v>
+      </c>
+      <c r="F56">
+        <v>-0.08185005302373893</v>
+      </c>
+      <c r="G56">
+        <v>-0.04224802660552218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02190225502085835</v>
+        <v>0.005720970066013147</v>
       </c>
       <c r="C57">
-        <v>0.009463893845888723</v>
+        <v>-0.006467329161486924</v>
       </c>
       <c r="D57">
-        <v>0.03218254725096723</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02286008378033076</v>
+      </c>
+      <c r="E57">
+        <v>-0.02504050535699396</v>
+      </c>
+      <c r="F57">
+        <v>0.008824175421173508</v>
+      </c>
+      <c r="G57">
+        <v>-0.0240095186618936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02008824390118995</v>
+        <v>0.05333819751823415</v>
       </c>
       <c r="C58">
-        <v>-0.01897501476701004</v>
+        <v>-0.0437424511665285</v>
       </c>
       <c r="D58">
-        <v>0.128090667091539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01975263013010715</v>
+      </c>
+      <c r="E58">
+        <v>-0.916069169565616</v>
+      </c>
+      <c r="F58">
+        <v>-0.2570006203172955</v>
+      </c>
+      <c r="G58">
+        <v>0.2302116171193743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1840602923993831</v>
+        <v>0.1604074935555335</v>
       </c>
       <c r="C59">
-        <v>-0.197752846383584</v>
+        <v>0.2051446865735638</v>
       </c>
       <c r="D59">
-        <v>-0.1056438930448783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01170146923486066</v>
+      </c>
+      <c r="E59">
+        <v>-0.01821725330612328</v>
+      </c>
+      <c r="F59">
+        <v>-0.002584561884991037</v>
+      </c>
+      <c r="G59">
+        <v>-0.04115500124008054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1539730638379421</v>
+        <v>0.2888728623739495</v>
       </c>
       <c r="C60">
-        <v>-0.1364150559237333</v>
+        <v>-0.1093783978139747</v>
       </c>
       <c r="D60">
-        <v>0.149725937009451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01175145160508731</v>
+      </c>
+      <c r="E60">
+        <v>0.005483599202996854</v>
+      </c>
+      <c r="F60">
+        <v>0.3400858476600606</v>
+      </c>
+      <c r="G60">
+        <v>0.162807673952359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001693925146710294</v>
+        <v>0.03899952933433874</v>
       </c>
       <c r="C61">
-        <v>0.00333966885610629</v>
+        <v>-0.06576299314727788</v>
       </c>
       <c r="D61">
-        <v>0.07453594551559244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005562391172339207</v>
+      </c>
+      <c r="E61">
+        <v>-0.02394962102981227</v>
+      </c>
+      <c r="F61">
+        <v>0.0132675164284982</v>
+      </c>
+      <c r="G61">
+        <v>-0.09609414991126661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006726864256527346</v>
+        <v>0.01608517770457906</v>
       </c>
       <c r="C63">
-        <v>0.003624822320286404</v>
+        <v>-0.03061143782638198</v>
       </c>
       <c r="D63">
-        <v>0.02582138673491773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008421179977327366</v>
+      </c>
+      <c r="E63">
+        <v>-0.003729923746277549</v>
+      </c>
+      <c r="F63">
+        <v>-0.01779767743657483</v>
+      </c>
+      <c r="G63">
+        <v>-0.09194438084570801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02425422660325269</v>
+        <v>0.04919174672204592</v>
       </c>
       <c r="C64">
-        <v>-0.01791474261992562</v>
+        <v>-0.04740822177475373</v>
       </c>
       <c r="D64">
-        <v>0.06062113310934515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006556265818481281</v>
+      </c>
+      <c r="E64">
+        <v>-0.007905418179714253</v>
+      </c>
+      <c r="F64">
+        <v>0.009502005690574642</v>
+      </c>
+      <c r="G64">
+        <v>-0.1026489115156498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02954954724583326</v>
+        <v>0.07552597338259812</v>
       </c>
       <c r="C65">
-        <v>-0.005775474737684084</v>
+        <v>-0.05793953404015226</v>
       </c>
       <c r="D65">
-        <v>0.1156980997581617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01664281786970435</v>
+      </c>
+      <c r="E65">
+        <v>-0.03917526458291865</v>
+      </c>
+      <c r="F65">
+        <v>0.0278496859573079</v>
+      </c>
+      <c r="G65">
+        <v>-0.0429703387173436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.007412152326511382</v>
+        <v>0.05095575771818195</v>
       </c>
       <c r="C66">
-        <v>0.02139656752506059</v>
+        <v>-0.1068171777950118</v>
       </c>
       <c r="D66">
-        <v>0.1347736452264304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01172441950069021</v>
+      </c>
+      <c r="E66">
+        <v>-0.04077712829629484</v>
+      </c>
+      <c r="F66">
+        <v>0.03384901281121391</v>
+      </c>
+      <c r="G66">
+        <v>-0.1046216911971667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02696100005084885</v>
+        <v>0.05394415331339122</v>
       </c>
       <c r="C67">
-        <v>-0.03485594085136653</v>
+        <v>-0.0338356078063592</v>
       </c>
       <c r="D67">
-        <v>0.05921411269118963</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005904038814616862</v>
+      </c>
+      <c r="E67">
+        <v>0.001390658470438544</v>
+      </c>
+      <c r="F67">
+        <v>-0.01768726743718946</v>
+      </c>
+      <c r="G67">
+        <v>-0.07486857919603003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1922479965902236</v>
+        <v>0.1558252552677059</v>
       </c>
       <c r="C68">
-        <v>-0.1792495245897705</v>
+        <v>0.2690870486215964</v>
       </c>
       <c r="D68">
-        <v>-0.1580271935008011</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005405071225291075</v>
+      </c>
+      <c r="E68">
+        <v>-0.01221354222704797</v>
+      </c>
+      <c r="F68">
+        <v>-0.03709760508083439</v>
+      </c>
+      <c r="G68">
+        <v>-0.02966874609184417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02270640167949516</v>
+        <v>0.08272452907599302</v>
       </c>
       <c r="C69">
-        <v>-0.03237070458829527</v>
+        <v>-0.07022542185548192</v>
       </c>
       <c r="D69">
-        <v>0.07820767799385783</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00889879096307352</v>
+      </c>
+      <c r="E69">
+        <v>0.02016847394450507</v>
+      </c>
+      <c r="F69">
+        <v>-0.03887512331129028</v>
+      </c>
+      <c r="G69">
+        <v>-0.1019215413519616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1561342146551569</v>
+        <v>0.1416100559953121</v>
       </c>
       <c r="C71">
-        <v>-0.1549463901310953</v>
+        <v>0.2302601031451241</v>
       </c>
       <c r="D71">
-        <v>-0.1104974001125127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00318256020829499</v>
+      </c>
+      <c r="E71">
+        <v>-0.03208385058580224</v>
+      </c>
+      <c r="F71">
+        <v>-0.02501987239971997</v>
+      </c>
+      <c r="G71">
+        <v>-0.07111124239794724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.009055767080342522</v>
+        <v>0.08460055171702191</v>
       </c>
       <c r="C72">
-        <v>-0.01756351505101654</v>
+        <v>-0.06913684064955269</v>
       </c>
       <c r="D72">
-        <v>0.1056791629517913</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008141189096437891</v>
+      </c>
+      <c r="E72">
+        <v>0.00870251345802813</v>
+      </c>
+      <c r="F72">
+        <v>0.03599953479511456</v>
+      </c>
+      <c r="G72">
+        <v>-0.08686436159643628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1876764291186484</v>
+        <v>0.3768989295942498</v>
       </c>
       <c r="C73">
-        <v>-0.1580551013121346</v>
+        <v>-0.1175695308233422</v>
       </c>
       <c r="D73">
-        <v>0.2774409710971481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02077874641283728</v>
+      </c>
+      <c r="E73">
+        <v>-0.07013508401088553</v>
+      </c>
+      <c r="F73">
+        <v>0.5832651221830171</v>
+      </c>
+      <c r="G73">
+        <v>0.2877718542543903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.03139799892022545</v>
+        <v>0.1046859455451443</v>
       </c>
       <c r="C74">
-        <v>-0.0406791218844702</v>
+        <v>-0.1098629005598032</v>
       </c>
       <c r="D74">
-        <v>0.1716302801288271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009441938492219505</v>
+      </c>
+      <c r="E74">
+        <v>0.007107505698100341</v>
+      </c>
+      <c r="F74">
+        <v>-0.06952170818115261</v>
+      </c>
+      <c r="G74">
+        <v>-0.0818697352972106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.08200725573520641</v>
+        <v>0.2468261709231794</v>
       </c>
       <c r="C75">
-        <v>-0.1000636848566291</v>
+        <v>-0.1534286040346852</v>
       </c>
       <c r="D75">
-        <v>0.3060950040764027</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03074990308800683</v>
+      </c>
+      <c r="E75">
+        <v>0.06561362414253422</v>
+      </c>
+      <c r="F75">
+        <v>-0.1677934758803085</v>
+      </c>
+      <c r="G75">
+        <v>0.02015108934090901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.03787145561532563</v>
+        <v>0.1182826290667697</v>
       </c>
       <c r="C76">
-        <v>-0.05540294427577026</v>
+        <v>-0.1094298528890452</v>
       </c>
       <c r="D76">
-        <v>0.2084962266910953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01791040243387773</v>
+      </c>
+      <c r="E76">
+        <v>0.0245449765315475</v>
+      </c>
+      <c r="F76">
+        <v>-0.1046968865314084</v>
+      </c>
+      <c r="G76">
+        <v>-0.06064329219062297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01772534917972749</v>
+        <v>0.07094426345161343</v>
       </c>
       <c r="C77">
-        <v>-0.003671764083831254</v>
+        <v>-0.06098723520163518</v>
       </c>
       <c r="D77">
-        <v>0.08254314212320663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01038376612221397</v>
+      </c>
+      <c r="E77">
+        <v>-0.04942935739951848</v>
+      </c>
+      <c r="F77">
+        <v>0.01404567906271206</v>
+      </c>
+      <c r="G77">
+        <v>-0.06312689495459924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007450597485031653</v>
+        <v>0.04277296174265018</v>
       </c>
       <c r="C78">
-        <v>-0.002211989417000415</v>
+        <v>-0.05000532588839889</v>
       </c>
       <c r="D78">
-        <v>0.06527122667070102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005890581148821868</v>
+      </c>
+      <c r="E78">
+        <v>-0.02779218860853886</v>
+      </c>
+      <c r="F78">
+        <v>0.0358889679893741</v>
+      </c>
+      <c r="G78">
+        <v>-0.1023762626588692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-6.576989472853757e-06</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0002995973401135464</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>8.525679817191005e-06</v>
+      </c>
+      <c r="E79">
+        <v>-0.0009441019262772267</v>
+      </c>
+      <c r="F79">
+        <v>0.0005407068623814464</v>
+      </c>
+      <c r="G79">
+        <v>0.0008947133360855461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03093027146035869</v>
+        <v>0.04322972793673495</v>
       </c>
       <c r="C80">
-        <v>-0.01521766124609228</v>
+        <v>-0.05121544085829045</v>
       </c>
       <c r="D80">
-        <v>0.08158601240187166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0132314750755696</v>
+      </c>
+      <c r="E80">
+        <v>-0.02591395271888672</v>
+      </c>
+      <c r="F80">
+        <v>0.0108381516459511</v>
+      </c>
+      <c r="G80">
+        <v>-0.05394016732362144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.04862724249521227</v>
+        <v>0.1368034501498288</v>
       </c>
       <c r="C81">
-        <v>-0.05779333946028307</v>
+        <v>-0.09594965902531667</v>
       </c>
       <c r="D81">
-        <v>0.1685762350638145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01468177112549408</v>
+      </c>
+      <c r="E81">
+        <v>0.03142119164064932</v>
+      </c>
+      <c r="F81">
+        <v>-0.1260054666550828</v>
+      </c>
+      <c r="G81">
+        <v>-0.02228339997776598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.133832780814571</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08141846882437569</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009544749541244469</v>
+      </c>
+      <c r="E82">
+        <v>0.09997404996324587</v>
+      </c>
+      <c r="F82">
+        <v>-0.05220819297885418</v>
+      </c>
+      <c r="G82">
+        <v>-0.06234462670546577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01495533735291571</v>
+        <v>0.03619641790774776</v>
       </c>
       <c r="C83">
-        <v>-0.009887778720754376</v>
+        <v>-0.02849971041434242</v>
       </c>
       <c r="D83">
-        <v>0.02727029012084158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006030440367820675</v>
+      </c>
+      <c r="E83">
+        <v>-0.03009516027322972</v>
+      </c>
+      <c r="F83">
+        <v>0.02939692101333867</v>
+      </c>
+      <c r="G83">
+        <v>-0.06329337786490581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.07374239168499558</v>
+        <v>0.2108748030351613</v>
       </c>
       <c r="C85">
-        <v>-0.0736739624438988</v>
+        <v>-0.1481144791738783</v>
       </c>
       <c r="D85">
-        <v>0.2773796118274651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01676022705777028</v>
+      </c>
+      <c r="E85">
+        <v>0.09972581887842134</v>
+      </c>
+      <c r="F85">
+        <v>-0.122383909647831</v>
+      </c>
+      <c r="G85">
+        <v>0.06019150710513128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01620008733820553</v>
+        <v>0.01427097471507322</v>
       </c>
       <c r="C86">
-        <v>-0.009801852149496932</v>
+        <v>-0.02475303182051978</v>
       </c>
       <c r="D86">
-        <v>0.04266453166581417</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01140944404490328</v>
+      </c>
+      <c r="E86">
+        <v>-0.0514523207854748</v>
+      </c>
+      <c r="F86">
+        <v>0.01815869318658592</v>
+      </c>
+      <c r="G86">
+        <v>-0.1914166445659754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.001173439951914715</v>
+        <v>0.02111010635105331</v>
       </c>
       <c r="C87">
-        <v>0.01115709486687058</v>
+        <v>-0.02067729099676152</v>
       </c>
       <c r="D87">
-        <v>0.03818774224694626</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01199759945291265</v>
+      </c>
+      <c r="E87">
+        <v>-0.09514627241604394</v>
+      </c>
+      <c r="F87">
+        <v>0.008736311833045194</v>
+      </c>
+      <c r="G87">
+        <v>-0.1233244138594152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04412778963264873</v>
+        <v>0.09395457842387256</v>
       </c>
       <c r="C88">
-        <v>-0.01268998602889502</v>
+        <v>-0.06911478289663926</v>
       </c>
       <c r="D88">
-        <v>0.04958484906601306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02231520986468381</v>
+      </c>
+      <c r="E88">
+        <v>0.003745391933489116</v>
+      </c>
+      <c r="F88">
+        <v>-0.02204012974634193</v>
+      </c>
+      <c r="G88">
+        <v>-0.1019888218256066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2867732964753949</v>
+        <v>0.2331959696065366</v>
       </c>
       <c r="C89">
-        <v>-0.2801614150411678</v>
+        <v>0.3682055710350441</v>
       </c>
       <c r="D89">
-        <v>-0.1922937223115184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004942475734355296</v>
+      </c>
+      <c r="E89">
+        <v>0.01876789909516154</v>
+      </c>
+      <c r="F89">
+        <v>-0.02709423794201858</v>
+      </c>
+      <c r="G89">
+        <v>-0.07053814282465995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2340194870203103</v>
+        <v>0.2082173434745252</v>
       </c>
       <c r="C90">
-        <v>-0.2333271988566355</v>
+        <v>0.3163280248539361</v>
       </c>
       <c r="D90">
-        <v>-0.1742874806404215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004807624705557726</v>
+      </c>
+      <c r="E90">
+        <v>-0.001099762245653387</v>
+      </c>
+      <c r="F90">
+        <v>-0.04836493451213467</v>
+      </c>
+      <c r="G90">
+        <v>-0.04300778712388392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07094598874521381</v>
+        <v>0.184342824105329</v>
       </c>
       <c r="C91">
-        <v>-0.08943672750944483</v>
+        <v>-0.1420388220823808</v>
       </c>
       <c r="D91">
-        <v>0.2300541574919352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02173750354295677</v>
+      </c>
+      <c r="E91">
+        <v>0.06121127881620066</v>
+      </c>
+      <c r="F91">
+        <v>-0.1421866216948522</v>
+      </c>
+      <c r="G91">
+        <v>-0.03467226004616657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1916848311039738</v>
+        <v>0.2000078261662692</v>
       </c>
       <c r="C92">
-        <v>-0.2333728163442348</v>
+        <v>0.2564779904360031</v>
       </c>
       <c r="D92">
-        <v>-0.07731629703883229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03827028053340516</v>
+      </c>
+      <c r="E92">
+        <v>-0.04261165265985623</v>
+      </c>
+      <c r="F92">
+        <v>-0.05987180726211725</v>
+      </c>
+      <c r="G92">
+        <v>-0.1129828009814222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2457621659382576</v>
+        <v>0.2318740122829162</v>
       </c>
       <c r="C93">
-        <v>-0.2522348338373146</v>
+        <v>0.3128177975572134</v>
       </c>
       <c r="D93">
-        <v>-0.143249585048649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01152830953136751</v>
+      </c>
+      <c r="E93">
+        <v>-0.004209696170903169</v>
+      </c>
+      <c r="F93">
+        <v>-0.04310340422830915</v>
+      </c>
+      <c r="G93">
+        <v>-0.05892303207053909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.119113665960759</v>
+        <v>0.3184485623672181</v>
       </c>
       <c r="C94">
-        <v>-0.1099229710853972</v>
+        <v>-0.1805118562682252</v>
       </c>
       <c r="D94">
-        <v>0.302529499812063</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01841837941497981</v>
+      </c>
+      <c r="E94">
+        <v>0.208535579000364</v>
+      </c>
+      <c r="F94">
+        <v>-0.480673595465874</v>
+      </c>
+      <c r="G94">
+        <v>0.4170009372681115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001493791097004173</v>
+        <v>0.1006260395398823</v>
       </c>
       <c r="C95">
-        <v>-0.008550370312005043</v>
+        <v>-0.08798231898222739</v>
       </c>
       <c r="D95">
-        <v>0.1179274028529699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01000011552560968</v>
+      </c>
+      <c r="E95">
+        <v>-0.08446504928554872</v>
+      </c>
+      <c r="F95">
+        <v>0.1871341868824668</v>
+      </c>
+      <c r="G95">
+        <v>-0.006474823626941954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1060122737646682</v>
+        <v>0.1954540648384415</v>
       </c>
       <c r="C98">
-        <v>-0.1271188963230687</v>
+        <v>-0.04520250218235036</v>
       </c>
       <c r="D98">
-        <v>0.1261841525842251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0135427290514855</v>
+      </c>
+      <c r="E98">
+        <v>-0.0668402360671429</v>
+      </c>
+      <c r="F98">
+        <v>0.2396166131959755</v>
+      </c>
+      <c r="G98">
+        <v>0.02639640338288219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009980383679465663</v>
+        <v>0.00856300573961879</v>
       </c>
       <c r="C101">
-        <v>-0.001365788985007112</v>
+        <v>-0.022569223817154</v>
       </c>
       <c r="D101">
-        <v>0.01904318862802217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009110406321843064</v>
+      </c>
+      <c r="E101">
+        <v>-0.005328732890760632</v>
+      </c>
+      <c r="F101">
+        <v>-0.01585220219291235</v>
+      </c>
+      <c r="G101">
+        <v>-0.09604479559609198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.04720088438272441</v>
+        <v>0.1155825713488852</v>
       </c>
       <c r="C102">
-        <v>-0.03755018626620539</v>
+        <v>-0.08436417522987828</v>
       </c>
       <c r="D102">
-        <v>0.1359682280171648</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008509831742127683</v>
+      </c>
+      <c r="E102">
+        <v>0.0352272817358448</v>
+      </c>
+      <c r="F102">
+        <v>-0.04252047079109268</v>
+      </c>
+      <c r="G102">
+        <v>-0.01128687655980669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.7072275876119791</v>
+        <v>0.0212742707608991</v>
       </c>
       <c r="C104">
-        <v>0.6939004399227443</v>
+        <v>0.03045689063640018</v>
       </c>
       <c r="D104">
-        <v>-0.03266655331793553</v>
+        <v>-0.9879154330792419</v>
+      </c>
+      <c r="E104">
+        <v>0.0476342053554312</v>
+      </c>
+      <c r="F104">
+        <v>-0.03518250135584848</v>
+      </c>
+      <c r="G104">
+        <v>0.03979384083007145</v>
       </c>
     </row>
   </sheetData>
